--- a/biology/Botanique/Gaëlle_Barlet/Gaëlle_Barlet.xlsx
+++ b/biology/Botanique/Gaëlle_Barlet/Gaëlle_Barlet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Barlet</t>
+          <t>Gaëlle_Barlet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaëlle Barlet, née le 5 février 1988, est une sportive française pratiquant la course d'orientation à VTT.
-Elle est sacrée championne du monde une première fois en sprint en 2011[1] puis en moyenne distance en 2015, elle décroche ensuite l'argent sur la longue distance en 2016 et le bronze dans le nouveau format de la mass start en 2017. Elle remporte également 4 médailles lors des championnats d'Europe dont le titre sur la middle en 2015[2].
+Elle est sacrée championne du monde une première fois en sprint en 2011 puis en moyenne distance en 2015, elle décroche ensuite l'argent sur la longue distance en 2016 et le bronze dans le nouveau format de la mass start en 2017. Elle remporte également 4 médailles lors des championnats d'Europe dont le titre sur la middle en 2015.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Barlet</t>
+          <t>Gaëlle_Barlet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Championnats du monde
+          <t>Championnats du monde</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Légende :
  : première place, médaille d'or
  : deuxième place, médaille d'argent
@@ -523,7 +541,7 @@
 NC : non classée
  : pas d'épreuve
 - : Non disputée
-Championnats d'Europe</t>
+</t>
         </is>
       </c>
     </row>
@@ -533,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Barlet</t>
+          <t>Gaëlle_Barlet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +569,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dessinatrice prometteuse au sein du bureau d'études bois de Jean-Luc Sandoz, Gaëlle Barlet a mené des projets qui ont été valorisés dans le cadre de Panorama Bois, l'outil de promotion de Fibois France[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dessinatrice prometteuse au sein du bureau d'études bois de Jean-Luc Sandoz, Gaëlle Barlet a mené des projets qui ont été valorisés dans le cadre de Panorama Bois, l'outil de promotion de Fibois France,.
 </t>
         </is>
       </c>
